--- a/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55EBBE8-FF24-43B0-99CE-E3DF2E0111DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78303676-E34B-4E26-8D5D-3CC5EE7FAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شخارک-پتروشیمی‌ خارک‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-11 (3)</t>
-  </si>
-  <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-12-28 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-15 (10)</t>
-  </si>
-  <si>
-    <t>1401-04-23 (3)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-12-28 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (7)</t>
   </si>
   <si>
     <t>1401-04-23</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-09 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -143,6 +113,9 @@
   </si>
   <si>
     <t>سود هر سهم پس از کسر مالیات</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>سرمایه</t>
@@ -615,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +596,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +609,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +620,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +631,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +640,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +651,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +662,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +671,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +692,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +722,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>5554122</v>
+        <v>19944097</v>
       </c>
       <c r="E11" s="13">
-        <v>8332237</v>
+        <v>31088027</v>
       </c>
       <c r="F11" s="13">
-        <v>13774064</v>
+        <v>25238054</v>
       </c>
       <c r="G11" s="13">
-        <v>24046026</v>
+        <v>23210856</v>
       </c>
       <c r="H11" s="13">
-        <v>17623649</v>
-      </c>
-      <c r="I11" s="13">
-        <v>24356300</v>
-      </c>
-      <c r="J11" s="13">
-        <v>19944097</v>
-      </c>
-      <c r="K11" s="13">
-        <v>31088027</v>
-      </c>
-      <c r="L11" s="13">
-        <v>25238054</v>
-      </c>
-      <c r="M11" s="13">
-        <v>23210856</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30259860</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2615842</v>
+        <v>-11321043</v>
       </c>
       <c r="E12" s="11">
-        <v>-2560474</v>
+        <v>-24812363</v>
       </c>
       <c r="F12" s="11">
-        <v>-5418770</v>
+        <v>-12774809</v>
       </c>
       <c r="G12" s="11">
-        <v>-7974485</v>
+        <v>-17286888</v>
       </c>
       <c r="H12" s="11">
-        <v>-7819092</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-11120569</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-11321043</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-24812363</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-12774809</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-17286888</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-20510752</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>2938280</v>
+        <v>8623054</v>
       </c>
       <c r="E13" s="15">
-        <v>5771763</v>
+        <v>6275664</v>
       </c>
       <c r="F13" s="15">
-        <v>8355294</v>
+        <v>12463245</v>
       </c>
       <c r="G13" s="15">
-        <v>16071541</v>
+        <v>5923968</v>
       </c>
       <c r="H13" s="15">
-        <v>9804557</v>
-      </c>
-      <c r="I13" s="15">
-        <v>13235731</v>
-      </c>
-      <c r="J13" s="15">
-        <v>8623054</v>
-      </c>
-      <c r="K13" s="15">
-        <v>6275664</v>
-      </c>
-      <c r="L13" s="15">
-        <v>12463245</v>
-      </c>
-      <c r="M13" s="15">
-        <v>5923968</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9749108</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1011716</v>
+        <v>-1463965</v>
       </c>
       <c r="E14" s="11">
-        <v>-2296048</v>
+        <v>-3200172</v>
       </c>
       <c r="F14" s="11">
-        <v>-2208139</v>
+        <v>-1175688</v>
       </c>
       <c r="G14" s="11">
-        <v>-4095976</v>
+        <v>-2574158</v>
       </c>
       <c r="H14" s="11">
-        <v>-2268400</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-2824808</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-1463965</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-3200172</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-1175688</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-2574158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2683855</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,97 +827,52 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>876812</v>
+        <v>183135</v>
       </c>
       <c r="E16" s="11">
-        <v>7248770</v>
+        <v>-610611</v>
       </c>
       <c r="F16" s="11">
-        <v>1941773</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>-1405807</v>
+        <v>2572342</v>
       </c>
       <c r="H16" s="11">
-        <v>117181</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1953551</v>
-      </c>
-      <c r="J16" s="11">
-        <v>183135</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-610611</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>2572342</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>707235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>2803376</v>
+        <v>7342224</v>
       </c>
       <c r="E17" s="15">
-        <v>10724485</v>
+        <v>2464881</v>
       </c>
       <c r="F17" s="15">
-        <v>8088928</v>
+        <v>11287557</v>
       </c>
       <c r="G17" s="15">
-        <v>10569758</v>
+        <v>5922152</v>
       </c>
       <c r="H17" s="15">
-        <v>7653338</v>
-      </c>
-      <c r="I17" s="15">
-        <v>12364474</v>
-      </c>
-      <c r="J17" s="15">
-        <v>7342224</v>
-      </c>
-      <c r="K17" s="15">
-        <v>2464881</v>
-      </c>
-      <c r="L17" s="15">
-        <v>11287557</v>
-      </c>
-      <c r="M17" s="15">
-        <v>5922152</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7772488</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -1094,169 +890,94 @@
       <c r="H18" s="11">
         <v>0</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>700469</v>
+        <v>563984</v>
       </c>
       <c r="E19" s="13">
-        <v>7888</v>
+        <v>589313</v>
       </c>
       <c r="F19" s="13">
-        <v>508007</v>
+        <v>360701</v>
       </c>
       <c r="G19" s="13">
-        <v>446814</v>
+        <v>1093080</v>
       </c>
       <c r="H19" s="13">
-        <v>198427</v>
-      </c>
-      <c r="I19" s="13">
-        <v>559841</v>
-      </c>
-      <c r="J19" s="13">
-        <v>563984</v>
-      </c>
-      <c r="K19" s="13">
-        <v>589313</v>
-      </c>
-      <c r="L19" s="13">
-        <v>360701</v>
-      </c>
-      <c r="M19" s="13">
-        <v>1093080</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>289399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3503845</v>
+        <v>7906208</v>
       </c>
       <c r="E20" s="17">
-        <v>10732373</v>
+        <v>3054194</v>
       </c>
       <c r="F20" s="17">
-        <v>8596935</v>
+        <v>11648258</v>
       </c>
       <c r="G20" s="17">
-        <v>11016572</v>
+        <v>7015232</v>
       </c>
       <c r="H20" s="17">
-        <v>7851765</v>
-      </c>
-      <c r="I20" s="17">
-        <v>12924315</v>
-      </c>
-      <c r="J20" s="17">
-        <v>7906208</v>
-      </c>
-      <c r="K20" s="17">
-        <v>3054194</v>
-      </c>
-      <c r="L20" s="17">
-        <v>11648258</v>
-      </c>
-      <c r="M20" s="17">
-        <v>7015232</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8061887</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-57371</v>
       </c>
       <c r="E21" s="13">
-        <v>-30982</v>
+        <v>-3184785</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
+        <v>-1544772</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>-2075736</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-57371</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-3184785</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-1544772</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-1927513</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-1653672</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3503845</v>
+        <v>7848837</v>
       </c>
       <c r="E22" s="17">
-        <v>10701391</v>
+        <v>-130591</v>
       </c>
       <c r="F22" s="17">
-        <v>8596935</v>
+        <v>10103486</v>
       </c>
       <c r="G22" s="17">
-        <v>11016572</v>
+        <v>4939496</v>
       </c>
       <c r="H22" s="17">
-        <v>7851765</v>
-      </c>
-      <c r="I22" s="17">
-        <v>12924315</v>
-      </c>
-      <c r="J22" s="17">
-        <v>7848837</v>
-      </c>
-      <c r="K22" s="17">
-        <v>-130591</v>
-      </c>
-      <c r="L22" s="17">
-        <v>10103486</v>
-      </c>
-      <c r="M22" s="17">
-        <v>5087719</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6408215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,104 +995,59 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3503845</v>
+        <v>7848837</v>
       </c>
       <c r="E24" s="17">
-        <v>10701391</v>
+        <v>-130591</v>
       </c>
       <c r="F24" s="17">
-        <v>8596935</v>
+        <v>10103486</v>
       </c>
       <c r="G24" s="17">
-        <v>11016572</v>
+        <v>4939496</v>
       </c>
       <c r="H24" s="17">
-        <v>7851765</v>
-      </c>
-      <c r="I24" s="17">
-        <v>12924315</v>
-      </c>
-      <c r="J24" s="17">
-        <v>7848837</v>
-      </c>
-      <c r="K24" s="17">
-        <v>-130591</v>
-      </c>
-      <c r="L24" s="17">
-        <v>10103486</v>
-      </c>
-      <c r="M24" s="17">
-        <v>5087719</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6408215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
-        <v>584</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1784</v>
+      <c r="D25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F25" s="13">
-        <v>1433</v>
+        <v>1684</v>
       </c>
       <c r="G25" s="13">
-        <v>1836</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1309</v>
-      </c>
-      <c r="I25" s="13">
-        <v>2154</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1308</v>
-      </c>
-      <c r="K25" s="13">
-        <v>-22</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1684</v>
-      </c>
-      <c r="M25" s="13">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
         <v>6000000</v>
@@ -1380,61 +1056,31 @@
         <v>6000000</v>
       </c>
       <c r="H26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>584</v>
+        <v>1308</v>
       </c>
       <c r="E27" s="13">
-        <v>1784</v>
+        <v>-22</v>
       </c>
       <c r="F27" s="13">
-        <v>1433</v>
+        <v>1684</v>
       </c>
       <c r="G27" s="13">
-        <v>1836</v>
+        <v>823</v>
       </c>
       <c r="H27" s="13">
-        <v>1309</v>
-      </c>
-      <c r="I27" s="13">
-        <v>2154</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1308</v>
-      </c>
-      <c r="K27" s="13">
-        <v>-22</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1684</v>
-      </c>
-      <c r="M27" s="13">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1088,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78303676-E34B-4E26-8D5D-3CC5EE7FAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,12 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -601,7 +602,7 @@
     <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,7 +611,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +622,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +633,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +642,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,7 +653,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -672,7 +673,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -693,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -714,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -723,7 +724,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -744,7 +745,7 @@
         <v>30259860</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -765,7 +766,7 @@
         <v>-20510752</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -786,7 +787,7 @@
         <v>9749108</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -807,7 +808,7 @@
         <v>-2683855</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -828,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
@@ -849,7 +850,7 @@
         <v>707235</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
@@ -870,7 +871,7 @@
         <v>7772488</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
@@ -891,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
@@ -912,7 +913,7 @@
         <v>289399</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -933,7 +934,7 @@
         <v>8061887</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
@@ -954,7 +955,7 @@
         <v>-1653672</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
@@ -975,7 +976,7 @@
         <v>6408215</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -996,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>6408215</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>30</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1056,10 +1057,10 @@
         <v>6000000</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0361C4-C152-48C1-944E-CEC166B5E8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1400-12-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-15 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-23 (3)</t>
+  </si>
+  <si>
+    <t>1401-09-09 (5)</t>
   </si>
   <si>
     <t>1401-10-29 (3)</t>
@@ -126,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,23 +617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -672,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -693,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -723,94 +819,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>8332237</v>
+      </c>
+      <c r="E11" s="13">
+        <v>13774064</v>
+      </c>
+      <c r="F11" s="13">
+        <v>24046026</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17623649</v>
+      </c>
+      <c r="H11" s="13">
+        <v>24356300</v>
+      </c>
+      <c r="I11" s="13">
         <v>19944097</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>31088027</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>25238054</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>23210856</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>30259860</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-2560474</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-5418770</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-7974485</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-7819092</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-11120569</v>
+      </c>
+      <c r="I12" s="11">
         <v>-11321043</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-24812363</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-12774809</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-17286888</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-20510752</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>5771763</v>
+      </c>
+      <c r="E13" s="15">
+        <v>8355294</v>
+      </c>
+      <c r="F13" s="15">
+        <v>16071541</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9804557</v>
+      </c>
+      <c r="H13" s="15">
+        <v>13235731</v>
+      </c>
+      <c r="I13" s="15">
         <v>8623054</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>6275664</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>12463245</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>5923968</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>9749108</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-2296048</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-2208139</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-4095976</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-2268400</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2824808</v>
+      </c>
+      <c r="I14" s="11">
         <v>-1463965</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-3200172</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1175688</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-2574158</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-2683855</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -828,52 +989,97 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>7248770</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1941773</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1405807</v>
+      </c>
+      <c r="G16" s="11">
+        <v>117181</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1953551</v>
+      </c>
+      <c r="I16" s="11">
         <v>183135</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-610611</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
         <v>2572342</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>707235</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>10724485</v>
+      </c>
+      <c r="E17" s="15">
+        <v>8088928</v>
+      </c>
+      <c r="F17" s="15">
+        <v>10569758</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7653338</v>
+      </c>
+      <c r="H17" s="15">
+        <v>12364474</v>
+      </c>
+      <c r="I17" s="15">
         <v>7342224</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>2464881</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>11287557</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>5922152</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>7772488</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
@@ -891,94 +1097,169 @@
       <c r="H18" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>7888</v>
+      </c>
+      <c r="E19" s="13">
+        <v>508007</v>
+      </c>
+      <c r="F19" s="13">
+        <v>446814</v>
+      </c>
+      <c r="G19" s="13">
+        <v>198427</v>
+      </c>
+      <c r="H19" s="13">
+        <v>559841</v>
+      </c>
+      <c r="I19" s="13">
         <v>563984</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>589313</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>360701</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>1093080</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>289399</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>10732373</v>
+      </c>
+      <c r="E20" s="17">
+        <v>8596935</v>
+      </c>
+      <c r="F20" s="17">
+        <v>11016572</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7851765</v>
+      </c>
+      <c r="H20" s="17">
+        <v>12924315</v>
+      </c>
+      <c r="I20" s="17">
         <v>7906208</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>3054194</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>11648258</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>7015232</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>8061887</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-30982</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>-57371</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-3184785</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-1544772</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2075736</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-1653672</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>10701391</v>
+      </c>
+      <c r="E22" s="17">
+        <v>8596935</v>
+      </c>
+      <c r="F22" s="17">
+        <v>11016572</v>
+      </c>
+      <c r="G22" s="17">
+        <v>7851765</v>
+      </c>
+      <c r="H22" s="17">
+        <v>12924315</v>
+      </c>
+      <c r="I22" s="17">
         <v>7848837</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>-130591</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>10103486</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>4939496</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>6408215</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -996,59 +1277,104 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>10701391</v>
+      </c>
+      <c r="E24" s="17">
+        <v>8596935</v>
+      </c>
+      <c r="F24" s="17">
+        <v>11016572</v>
+      </c>
+      <c r="G24" s="17">
+        <v>7851765</v>
+      </c>
+      <c r="H24" s="17">
+        <v>12924315</v>
+      </c>
+      <c r="I24" s="17">
         <v>7848837</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>-130591</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>10103486</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>4939496</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>6408215</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>31</v>
+      <c r="D25" s="13">
+        <v>1784</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1433</v>
       </c>
       <c r="F25" s="13">
+        <v>1836</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1309</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2154</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="13">
         <v>1684</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>823</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M25" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="F26" s="11">
         <v>6000000</v>
@@ -1059,29 +1385,59 @@
       <c r="H26" s="11">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>6000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>1784</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1433</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1836</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1309</v>
+      </c>
+      <c r="H27" s="13">
+        <v>2154</v>
+      </c>
+      <c r="I27" s="13">
         <v>1308</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>-22</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>1684</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>823</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>1068</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1089,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0361C4-C152-48C1-944E-CEC166B5E8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,10 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1386,10 +1387,10 @@
         <v>6000000</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="J26" s="11">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="K26" s="11">
         <v>6000000</v>
@@ -1398,7 +1399,7 @@
         <v>6000000</v>
       </c>
       <c r="M26" s="11">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878E278-6E06-4F48-A51E-E6EE61F57152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-12-28 (3)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-27 (9)</t>
   </si>
   <si>
     <t>1401-04-23</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-27 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,25 +617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -648,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -776,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>8332237</v>
+        <v>13774064</v>
       </c>
       <c r="E11" s="13">
-        <v>13774064</v>
+        <v>24046026</v>
       </c>
       <c r="F11" s="13">
-        <v>24046026</v>
+        <v>17623649</v>
       </c>
       <c r="G11" s="13">
-        <v>17623649</v>
+        <v>24356300</v>
       </c>
       <c r="H11" s="13">
-        <v>24356300</v>
+        <v>19944097</v>
       </c>
       <c r="I11" s="13">
-        <v>19944097</v>
+        <v>31088027</v>
       </c>
       <c r="J11" s="13">
-        <v>31088027</v>
+        <v>25238054</v>
       </c>
       <c r="K11" s="13">
-        <v>25238054</v>
+        <v>23210856</v>
       </c>
       <c r="L11" s="13">
-        <v>23210856</v>
+        <v>30259860</v>
       </c>
       <c r="M11" s="13">
-        <v>30259860</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>33089558</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-2560474</v>
+        <v>-5418770</v>
       </c>
       <c r="E12" s="11">
-        <v>-5418770</v>
+        <v>-7974485</v>
       </c>
       <c r="F12" s="11">
-        <v>-7974485</v>
+        <v>-7819092</v>
       </c>
       <c r="G12" s="11">
-        <v>-7819092</v>
+        <v>-11120569</v>
       </c>
       <c r="H12" s="11">
-        <v>-11120569</v>
+        <v>-11321043</v>
       </c>
       <c r="I12" s="11">
-        <v>-11321043</v>
+        <v>-24812363</v>
       </c>
       <c r="J12" s="11">
-        <v>-24812363</v>
+        <v>-12774809</v>
       </c>
       <c r="K12" s="11">
-        <v>-12774809</v>
+        <v>-17286888</v>
       </c>
       <c r="L12" s="11">
-        <v>-17286888</v>
+        <v>-20510752</v>
       </c>
       <c r="M12" s="11">
-        <v>-20510752</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-16386294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5771763</v>
+        <v>8355294</v>
       </c>
       <c r="E13" s="15">
-        <v>8355294</v>
+        <v>16071541</v>
       </c>
       <c r="F13" s="15">
-        <v>16071541</v>
+        <v>9804557</v>
       </c>
       <c r="G13" s="15">
-        <v>9804557</v>
+        <v>13235731</v>
       </c>
       <c r="H13" s="15">
-        <v>13235731</v>
+        <v>8623054</v>
       </c>
       <c r="I13" s="15">
-        <v>8623054</v>
+        <v>6275664</v>
       </c>
       <c r="J13" s="15">
-        <v>6275664</v>
+        <v>12463245</v>
       </c>
       <c r="K13" s="15">
-        <v>12463245</v>
+        <v>5923968</v>
       </c>
       <c r="L13" s="15">
-        <v>5923968</v>
+        <v>9749108</v>
       </c>
       <c r="M13" s="15">
-        <v>9749108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>16703264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-2296048</v>
+        <v>-2208139</v>
       </c>
       <c r="E14" s="11">
-        <v>-2208139</v>
+        <v>-4095976</v>
       </c>
       <c r="F14" s="11">
-        <v>-4095976</v>
+        <v>-2268400</v>
       </c>
       <c r="G14" s="11">
-        <v>-2268400</v>
+        <v>-2824808</v>
       </c>
       <c r="H14" s="11">
-        <v>-2824808</v>
+        <v>-1463965</v>
       </c>
       <c r="I14" s="11">
-        <v>-1463965</v>
+        <v>-3200172</v>
       </c>
       <c r="J14" s="11">
-        <v>-3200172</v>
+        <v>-1175688</v>
       </c>
       <c r="K14" s="11">
-        <v>-1175688</v>
+        <v>-2574158</v>
       </c>
       <c r="L14" s="11">
-        <v>-2574158</v>
+        <v>-2683855</v>
       </c>
       <c r="M14" s="11">
-        <v>-2683855</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-4279895</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1006,79 +1006,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>7248770</v>
+        <v>1941773</v>
       </c>
       <c r="E16" s="11">
-        <v>1941773</v>
+        <v>-1405807</v>
       </c>
       <c r="F16" s="11">
-        <v>-1405807</v>
+        <v>117181</v>
       </c>
       <c r="G16" s="11">
-        <v>117181</v>
+        <v>1953551</v>
       </c>
       <c r="H16" s="11">
-        <v>1953551</v>
+        <v>183135</v>
       </c>
       <c r="I16" s="11">
-        <v>183135</v>
+        <v>-610611</v>
       </c>
       <c r="J16" s="11">
-        <v>-610611</v>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>0</v>
+        <v>2572342</v>
       </c>
       <c r="L16" s="11">
-        <v>2572342</v>
+        <v>707235</v>
       </c>
       <c r="M16" s="11">
-        <v>707235</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7065125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>10724485</v>
+        <v>8088928</v>
       </c>
       <c r="E17" s="15">
-        <v>8088928</v>
+        <v>10569758</v>
       </c>
       <c r="F17" s="15">
-        <v>10569758</v>
+        <v>7653338</v>
       </c>
       <c r="G17" s="15">
-        <v>7653338</v>
+        <v>12364474</v>
       </c>
       <c r="H17" s="15">
-        <v>12364474</v>
+        <v>7342224</v>
       </c>
       <c r="I17" s="15">
-        <v>7342224</v>
+        <v>2464881</v>
       </c>
       <c r="J17" s="15">
-        <v>2464881</v>
+        <v>11287557</v>
       </c>
       <c r="K17" s="15">
-        <v>11287557</v>
+        <v>5922152</v>
       </c>
       <c r="L17" s="15">
-        <v>5922152</v>
+        <v>7772488</v>
       </c>
       <c r="M17" s="15">
-        <v>7772488</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19488494</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1114,85 +1114,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>7888</v>
+        <v>508007</v>
       </c>
       <c r="E19" s="13">
-        <v>508007</v>
+        <v>446814</v>
       </c>
       <c r="F19" s="13">
-        <v>446814</v>
+        <v>198427</v>
       </c>
       <c r="G19" s="13">
-        <v>198427</v>
+        <v>559841</v>
       </c>
       <c r="H19" s="13">
-        <v>559841</v>
+        <v>563984</v>
       </c>
       <c r="I19" s="13">
-        <v>563984</v>
+        <v>589313</v>
       </c>
       <c r="J19" s="13">
-        <v>589313</v>
+        <v>360701</v>
       </c>
       <c r="K19" s="13">
-        <v>360701</v>
+        <v>1093080</v>
       </c>
       <c r="L19" s="13">
-        <v>1093080</v>
+        <v>289399</v>
       </c>
       <c r="M19" s="13">
-        <v>289399</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>394238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>10732373</v>
+        <v>8596935</v>
       </c>
       <c r="E20" s="17">
-        <v>8596935</v>
+        <v>11016572</v>
       </c>
       <c r="F20" s="17">
-        <v>11016572</v>
+        <v>7851765</v>
       </c>
       <c r="G20" s="17">
-        <v>7851765</v>
+        <v>12924315</v>
       </c>
       <c r="H20" s="17">
-        <v>12924315</v>
+        <v>7906208</v>
       </c>
       <c r="I20" s="17">
-        <v>7906208</v>
+        <v>3054194</v>
       </c>
       <c r="J20" s="17">
-        <v>3054194</v>
+        <v>11648258</v>
       </c>
       <c r="K20" s="17">
-        <v>11648258</v>
+        <v>7015232</v>
       </c>
       <c r="L20" s="17">
-        <v>7015232</v>
+        <v>8061887</v>
       </c>
       <c r="M20" s="17">
-        <v>8061887</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>19882732</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-30982</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -1204,61 +1204,61 @@
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>-57371</v>
       </c>
       <c r="I21" s="13">
-        <v>-57371</v>
+        <v>-3184785</v>
       </c>
       <c r="J21" s="13">
-        <v>-3184785</v>
+        <v>-1544772</v>
       </c>
       <c r="K21" s="13">
-        <v>-1544772</v>
+        <v>-2075736</v>
       </c>
       <c r="L21" s="13">
-        <v>-2075736</v>
+        <v>-1653672</v>
       </c>
       <c r="M21" s="13">
-        <v>-1653672</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2859908</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>10701391</v>
+        <v>8596935</v>
       </c>
       <c r="E22" s="17">
-        <v>8596935</v>
+        <v>11016572</v>
       </c>
       <c r="F22" s="17">
-        <v>11016572</v>
+        <v>7851765</v>
       </c>
       <c r="G22" s="17">
-        <v>7851765</v>
+        <v>12924315</v>
       </c>
       <c r="H22" s="17">
-        <v>12924315</v>
+        <v>7848837</v>
       </c>
       <c r="I22" s="17">
-        <v>7848837</v>
+        <v>-130591</v>
       </c>
       <c r="J22" s="17">
-        <v>-130591</v>
+        <v>10103486</v>
       </c>
       <c r="K22" s="17">
-        <v>10103486</v>
+        <v>4939496</v>
       </c>
       <c r="L22" s="17">
-        <v>4939496</v>
+        <v>6408215</v>
       </c>
       <c r="M22" s="17">
-        <v>6408215</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17022824</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1294,79 +1294,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>10701391</v>
+        <v>8596935</v>
       </c>
       <c r="E24" s="17">
-        <v>8596935</v>
+        <v>11016572</v>
       </c>
       <c r="F24" s="17">
-        <v>11016572</v>
+        <v>7851765</v>
       </c>
       <c r="G24" s="17">
-        <v>7851765</v>
+        <v>12924315</v>
       </c>
       <c r="H24" s="17">
-        <v>12924315</v>
+        <v>7848837</v>
       </c>
       <c r="I24" s="17">
-        <v>7848837</v>
+        <v>-130591</v>
       </c>
       <c r="J24" s="17">
-        <v>-130591</v>
+        <v>10103486</v>
       </c>
       <c r="K24" s="17">
-        <v>10103486</v>
+        <v>4939496</v>
       </c>
       <c r="L24" s="17">
-        <v>4939496</v>
+        <v>6408215</v>
       </c>
       <c r="M24" s="17">
-        <v>6408215</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17022824</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1784</v>
+        <v>1433</v>
       </c>
       <c r="E25" s="13">
-        <v>1433</v>
+        <v>1836</v>
       </c>
       <c r="F25" s="13">
-        <v>1836</v>
+        <v>1309</v>
       </c>
       <c r="G25" s="13">
-        <v>1309</v>
-      </c>
-      <c r="H25" s="13">
         <v>2154</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="I25" s="13">
+        <v>-22</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1684</v>
+      </c>
+      <c r="K25" s="13">
+        <v>823</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="13">
-        <v>1684</v>
-      </c>
-      <c r="L25" s="13">
-        <v>823</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="13">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>6000000</v>
       </c>
       <c r="H26" s="11">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <v>6000000</v>
@@ -1396,49 +1396,49 @@
         <v>6000000</v>
       </c>
       <c r="L26" s="11">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="M26" s="11">
         <v>6000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1784</v>
+        <v>1433</v>
       </c>
       <c r="E27" s="13">
-        <v>1433</v>
+        <v>1836</v>
       </c>
       <c r="F27" s="13">
-        <v>1836</v>
+        <v>1309</v>
       </c>
       <c r="G27" s="13">
-        <v>1309</v>
+        <v>2154</v>
       </c>
       <c r="H27" s="13">
-        <v>2154</v>
+        <v>1308</v>
       </c>
       <c r="I27" s="13">
-        <v>1308</v>
+        <v>-22</v>
       </c>
       <c r="J27" s="13">
-        <v>-22</v>
+        <v>1684</v>
       </c>
       <c r="K27" s="13">
-        <v>1684</v>
+        <v>823</v>
       </c>
       <c r="L27" s="13">
-        <v>823</v>
+        <v>1068</v>
       </c>
       <c r="M27" s="13">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
